--- a/results/artist-genre/experiment_2019-05-19-02-05/average_validation_result_table_artist-genre.xlsx
+++ b/results/artist-genre/experiment_2019-05-19-02-05/average_validation_result_table_artist-genre.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="46">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">2019-05-19-05-36-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve">2019-05-19-05-53-52</t>
@@ -171,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -194,6 +191,14 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFED1C24"/>
       <name val="Arial"/>
@@ -249,8 +254,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,23 +271,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -355,10 +372,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,61 +466,62 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="0" t="n">
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O2" s="0" t="n">
+      <c r="N2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>230</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="0" t="n">
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>86.18</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2" s="1" t="n">
         <v>59.18</v>
       </c>
     </row>
@@ -520,10 +538,10 @@
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -538,7 +556,7 @@
       <c r="K3" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="0" t="n">
@@ -550,13 +568,13 @@
       <c r="O3" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="2" t="n">
+      <c r="P3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S3" s="0" t="n">
@@ -579,10 +597,10 @@
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="0" t="n">
@@ -597,7 +615,7 @@
       <c r="K4" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="0" t="n">
@@ -609,13 +627,13 @@
       <c r="O4" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="2" t="n">
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S4" s="0" t="n">
@@ -638,10 +656,10 @@
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="0" t="n">
@@ -656,7 +674,7 @@
       <c r="K5" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="0" t="n">
@@ -668,13 +686,13 @@
       <c r="O5" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="2" t="n">
+      <c r="P5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="1" t="n">
         <v>960</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S5" s="0" t="n">
@@ -697,10 +715,10 @@
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="0" t="n">
@@ -712,10 +730,10 @@
       <c r="I6" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="0" t="n">
@@ -727,13 +745,13 @@
       <c r="O6" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S6" s="0" t="n">
@@ -756,10 +774,10 @@
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -771,10 +789,10 @@
       <c r="I7" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="0" t="n">
@@ -786,13 +804,13 @@
       <c r="O7" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S7" s="0" t="n">
@@ -803,61 +821,62 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2" t="n">
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="0" t="n">
+      <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="N8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O8" s="0" t="n">
+      <c r="N8" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O8" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>230</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="0" t="n">
+      <c r="P8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="1" t="n">
         <v>87.03</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="1" t="n">
         <v>63.12</v>
       </c>
     </row>
@@ -874,10 +893,10 @@
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="0" t="n">
@@ -889,10 +908,10 @@
       <c r="I9" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="K9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="0" t="n">
@@ -904,13 +923,13 @@
       <c r="O9" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S9" s="0" t="n">
@@ -933,10 +952,10 @@
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="0" t="n">
@@ -951,7 +970,7 @@
       <c r="K10" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -963,13 +982,13 @@
       <c r="O10" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S10" s="0" t="n">
@@ -992,13 +1011,13 @@
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="2" t="n">
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="0" t="s">
@@ -1010,7 +1029,7 @@
       <c r="K11" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="0" t="n">
@@ -1022,13 +1041,13 @@
       <c r="O11" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S11" s="0" t="n">
@@ -1051,13 +1070,13 @@
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="2" t="n">
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="0" t="s">
@@ -1069,7 +1088,7 @@
       <c r="K12" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="0" t="n">
@@ -1081,13 +1100,13 @@
       <c r="O12" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S12" s="0" t="n">
@@ -1110,10 +1129,10 @@
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="0" t="n">
@@ -1128,7 +1147,7 @@
       <c r="K13" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="0" t="n">
@@ -1137,16 +1156,16 @@
       <c r="N13" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S13" s="0" t="n">
@@ -1169,10 +1188,10 @@
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="0" t="n">
@@ -1187,7 +1206,7 @@
       <c r="K14" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="0" t="n">
@@ -1196,16 +1215,16 @@
       <c r="N14" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="1" t="s">
+      <c r="O14" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S14" s="0" t="n">
@@ -1216,67 +1235,68 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="0" t="n">
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="N15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O15" s="2" t="n">
+      <c r="N15" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>230</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="0" t="n">
+      <c r="P15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="1" t="n">
         <v>87.96</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15" s="1" t="n">
         <v>67.36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.25</v>
@@ -1287,10 +1307,10 @@
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="0" t="n">
@@ -1305,7 +1325,7 @@
       <c r="K16" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="0" t="n">
@@ -1314,16 +1334,16 @@
       <c r="N16" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="O16" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S16" s="0" t="n">
@@ -1335,7 +1355,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.25</v>
@@ -1346,10 +1366,10 @@
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="0" t="n">
@@ -1358,13 +1378,13 @@
       <c r="H17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="1" t="n">
         <v>25</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="0" t="n">
@@ -1376,13 +1396,13 @@
       <c r="O17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S17" s="0" t="n">
@@ -1393,69 +1413,70 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K18" s="0" t="n">
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="0" t="n">
+      <c r="L18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="N18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O18" s="0" t="n">
+      <c r="N18" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>230</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="0" t="n">
+      <c r="P18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="1" t="n">
         <v>87.68</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18" s="1" t="n">
         <v>66.29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -1464,10 +1485,10 @@
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="0" t="n">
@@ -1482,7 +1503,7 @@
       <c r="K19" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="0" t="n">
@@ -1494,13 +1515,13 @@
       <c r="O19" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S19" s="0" t="n">
@@ -1512,21 +1533,21 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="0" t="n">
@@ -1541,7 +1562,7 @@
       <c r="K20" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="0" t="n">
@@ -1553,13 +1574,13 @@
       <c r="O20" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S20" s="0" t="n">
@@ -1571,21 +1592,21 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="4" t="n">
         <v>4</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="4" t="n">
@@ -1601,7 +1622,7 @@
       <c r="K21" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="4" t="n">
@@ -1613,13 +1634,13 @@
       <c r="O21" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>230</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="S21" s="4" t="n">
@@ -1631,21 +1652,21 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="0" t="n">
@@ -1660,7 +1681,7 @@
       <c r="K22" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="0" t="n">
@@ -1672,13 +1693,13 @@
       <c r="O22" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="0" t="n">
@@ -1690,7 +1711,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.25</v>
@@ -1701,10 +1722,10 @@
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="0" t="n">
@@ -1719,10 +1740,10 @@
       <c r="K23" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="2" t="n">
+      <c r="L23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="1" t="n">
         <v>1024</v>
       </c>
       <c r="N23" s="0" t="n">
@@ -1731,13 +1752,13 @@
       <c r="O23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q23" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S23" s="0" t="n">
@@ -1749,7 +1770,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.25</v>
@@ -1760,10 +1781,10 @@
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="0" t="n">
@@ -1778,10 +1799,10 @@
       <c r="K24" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="2" t="n">
+      <c r="L24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="1" t="n">
         <v>2048</v>
       </c>
       <c r="N24" s="0" t="n">
@@ -1790,13 +1811,13 @@
       <c r="O24" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q24" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S24" s="0" t="n">
@@ -1807,62 +1828,405 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K25" s="0" t="n">
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="2" t="n">
+      <c r="L25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="N25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O25" s="0" t="n">
+      <c r="N25" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>230</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="0" t="n">
+      <c r="P25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="1" t="n">
         <v>87.63</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="T25" s="1" t="n">
         <v>66.74</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="6" t="n">
+        <v>4096</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>87.91</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>67.69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <v>4096</v>
+      </c>
+      <c r="N27" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="O27" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="n">
+        <v>230</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="7" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="T27" s="7" t="n">
+        <v>67.94</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="6" t="n">
+        <v>4096</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>87.68</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>68.09</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="6" t="n">
+        <v>4096</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>87.68</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>67.4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="6" t="n">
+        <v>4096</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="6" t="n">
+        <v>230</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="6" t="n">
+        <v>87.96</v>
+      </c>
+      <c r="T30" s="6" t="n">
+        <v>69.08</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>4096</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>87.86</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>70.07</v>
       </c>
     </row>
   </sheetData>
